--- a/biology/Zoologie/Cerbalus_aravaensis/Cerbalus_aravaensis.xlsx
+++ b/biology/Zoologie/Cerbalus_aravaensis/Cerbalus_aravaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerbalus aravaensis est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerbalus aravaensis est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Sud d'Israël et en Jordanie dans la vallée d'Arabah[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Sud d'Israël et en Jordanie dans la vallée d'Arabah,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 23,5 mm, les mâles mesurent de 18,5 à 24,0 mm et les femelles de 22,0 à 26,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 23,5 mm, les mâles mesurent de 18,5 à 24,0 mm et les femelles de 22,0 à 26,5 mm.
 C'est la plus grosse araignée du Moyen-Orient.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de arava et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'Arabah.
 </t>
@@ -605,7 +623,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Gershom Levy en 2007 à partir de onze mâles et trois femelles.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Levy, 2007 : Calommata (Atypidae) and new spider species (Araneae) from Israel. Zootaxa, no 1551, p. 1-30.</t>
         </is>
